--- a/Clustered_data.xlsx
+++ b/Clustered_data.xlsx
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35.35128979534782</v>
+        <v>35.35128979534781</v>
       </c>
     </row>
     <row r="29">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>31.49740281464434</v>
+        <v>31.49740281464432</v>
       </c>
     </row>
     <row r="41">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>31.80788528788424</v>
+        <v>31.80788528788425</v>
       </c>
     </row>
     <row r="55">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35.50631156622514</v>
+        <v>35.50631156622516</v>
       </c>
     </row>
     <row r="70">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>33.94869477665715</v>
+        <v>33.94869477665714</v>
       </c>
     </row>
     <row r="74">
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>33.83251535721716</v>
+        <v>33.83251535721715</v>
       </c>
     </row>
     <row r="103">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>32.5456461382873</v>
+        <v>32.54564613828729</v>
       </c>
     </row>
     <row r="105">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>37.98064055301449</v>
+        <v>37.98064055301447</v>
       </c>
     </row>
     <row r="111">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>32.46606397778602</v>
+        <v>32.46606397778601</v>
       </c>
     </row>
     <row r="164">
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>32.31938852753002</v>
+        <v>32.31938852753004</v>
       </c>
     </row>
     <row r="180">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>40.0369873639908</v>
+        <v>40.03698736399082</v>
       </c>
     </row>
     <row r="212">
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>35.27009723265891</v>
+        <v>35.27009723265889</v>
       </c>
     </row>
     <row r="230">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>31.18512991948262</v>
+        <v>31.18512991948261</v>
       </c>
     </row>
     <row r="235">
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>32.92614887667411</v>
+        <v>32.9261488766741</v>
       </c>
     </row>
     <row r="271">
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>43.39085433857945</v>
+        <v>43.39085433857944</v>
       </c>
     </row>
     <row r="288">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>43.39085433857945</v>
+        <v>43.39085433857944</v>
       </c>
     </row>
     <row r="297">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>37.37859641248047</v>
+        <v>37.37859641248046</v>
       </c>
     </row>
     <row r="299">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>71.33963803252712</v>
+        <v>71.33963803252711</v>
       </c>
     </row>
     <row r="313">
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>38.02486337176308</v>
+        <v>38.02486337176306</v>
       </c>
     </row>
     <row r="316">
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>44.42620909946474</v>
+        <v>44.42620909946473</v>
       </c>
     </row>
     <row r="320">
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>37.53248231671032</v>
+        <v>37.53248231671031</v>
       </c>
     </row>
     <row r="322">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>40.84159696944305</v>
+        <v>40.84159696944304</v>
       </c>
     </row>
     <row r="324">
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>39.97246420155203</v>
+        <v>39.97246420155201</v>
       </c>
     </row>
     <row r="329">
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>41.66749716806367</v>
+        <v>41.66749716806366</v>
       </c>
     </row>
     <row r="330">
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>40.72010399952133</v>
+        <v>40.72010399952132</v>
       </c>
     </row>
     <row r="335">
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>39.36872988840717</v>
+        <v>39.36872988840716</v>
       </c>
     </row>
     <row r="337">
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>40.05155033525002</v>
+        <v>40.05155033525001</v>
       </c>
     </row>
     <row r="339">
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>71.33963803252712</v>
+        <v>71.33963803252711</v>
       </c>
     </row>
     <row r="340">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>40.95463138016886</v>
+        <v>40.95463138016885</v>
       </c>
     </row>
     <row r="342">
@@ -6613,7 +6613,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>38.10561105308091</v>
+        <v>38.1056110530809</v>
       </c>
     </row>
     <row r="343">
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>44.48181909414966</v>
+        <v>44.48181909414964</v>
       </c>
     </row>
     <row r="352">
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>42.06627465622803</v>
+        <v>42.06627465622802</v>
       </c>
     </row>
     <row r="354">
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>42.83069707964007</v>
+        <v>42.83069707964005</v>
       </c>
     </row>
     <row r="355">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>44.79393428398458</v>
+        <v>44.79393428398457</v>
       </c>
     </row>
     <row r="363">
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>71.33963803252712</v>
+        <v>71.33963803252711</v>
       </c>
     </row>
     <row r="370">
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>44.71285728837606</v>
+        <v>44.71285728837605</v>
       </c>
     </row>
     <row r="371">
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>71.33963803252712</v>
+        <v>71.33963803252711</v>
       </c>
     </row>
     <row r="372">
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>44.35331600636579</v>
+        <v>44.35331600636577</v>
       </c>
     </row>
     <row r="377">
@@ -7279,7 +7279,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>40.96100959508298</v>
+        <v>40.96100959508296</v>
       </c>
     </row>
     <row r="380">
@@ -7333,7 +7333,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>46.24261399168147</v>
+        <v>46.24261399168146</v>
       </c>
     </row>
     <row r="383">
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>48.74999822474112</v>
+        <v>48.74999822474111</v>
       </c>
     </row>
     <row r="384">
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>39.85038271262825</v>
+        <v>39.85038271262824</v>
       </c>
     </row>
     <row r="389">
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>44.2841647425775</v>
+        <v>44.28416474257748</v>
       </c>
     </row>
     <row r="394">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>44.60373116272218</v>
+        <v>44.60373116272217</v>
       </c>
     </row>
     <row r="395">
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>46.24261399168147</v>
+        <v>46.24261399168146</v>
       </c>
     </row>
     <row r="400">
@@ -8035,7 +8035,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>42.58934065173565</v>
+        <v>42.58934065173566</v>
       </c>
     </row>
     <row r="422">
@@ -8305,7 +8305,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>42.36987262453166</v>
+        <v>42.36987262453167</v>
       </c>
     </row>
     <row r="437">
@@ -9349,7 +9349,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>83.20274592295101</v>
+        <v>83.20274592295102</v>
       </c>
     </row>
     <row r="495">
@@ -9385,7 +9385,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>83.20274592295101</v>
+        <v>83.20274592295102</v>
       </c>
     </row>
     <row r="497">
@@ -9475,7 +9475,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>41.31244568317983</v>
+        <v>41.31244568317985</v>
       </c>
     </row>
     <row r="502">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>83.20274592295101</v>
+        <v>83.20274592295102</v>
       </c>
     </row>
     <row r="512">
@@ -9889,7 +9889,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>60.59758624706285</v>
+        <v>60.59758624706286</v>
       </c>
     </row>
     <row r="525">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>44.72003934515074</v>
+        <v>44.72003934515073</v>
       </c>
     </row>
     <row r="536">
@@ -11041,7 +11041,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>45.22932294697367</v>
+        <v>45.22932294697366</v>
       </c>
     </row>
     <row r="589">
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>44.72003934515074</v>
+        <v>44.72003934515073</v>
       </c>
     </row>
     <row r="595">
@@ -11473,7 +11473,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>52.98804602329449</v>
+        <v>52.98804602329448</v>
       </c>
     </row>
     <row r="613">
@@ -13615,7 +13615,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>56.55762854235816</v>
+        <v>56.55762854235817</v>
       </c>
     </row>
     <row r="732">
@@ -14083,7 +14083,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>53.65189239263714</v>
+        <v>53.65189239263716</v>
       </c>
     </row>
     <row r="758">
@@ -14101,7 +14101,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>70.21842281031394</v>
+        <v>70.21842281031392</v>
       </c>
     </row>
     <row r="759">
@@ -14749,7 +14749,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>64.26869134717937</v>
+        <v>64.26869134717938</v>
       </c>
     </row>
     <row r="795">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>55.372836744986</v>
+        <v>55.37283674498599</v>
       </c>
     </row>
     <row r="799">
@@ -15037,7 +15037,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>48.66337485885663</v>
+        <v>48.66337485885664</v>
       </c>
     </row>
     <row r="811">
@@ -15073,7 +15073,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>46.30250877615121</v>
+        <v>46.30250877615122</v>
       </c>
     </row>
     <row r="813">
@@ -15289,7 +15289,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>47.62332120116134</v>
+        <v>47.62332120116135</v>
       </c>
     </row>
     <row r="825">
@@ -15379,7 +15379,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>44.96100954846723</v>
+        <v>44.96100954846725</v>
       </c>
     </row>
     <row r="830">
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>51.39153913431898</v>
+        <v>51.39153913431899</v>
       </c>
     </row>
     <row r="831">
@@ -15559,7 +15559,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>41.29810544030777</v>
+        <v>41.29810544030779</v>
       </c>
     </row>
     <row r="840">
@@ -15595,7 +15595,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>39.88630038642184</v>
+        <v>39.88630038642186</v>
       </c>
     </row>
     <row r="842">
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>42.23371396314365</v>
+        <v>42.23371396314366</v>
       </c>
     </row>
     <row r="844">
@@ -15649,7 +15649,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>60.28639799010842</v>
+        <v>60.28639799010843</v>
       </c>
     </row>
     <row r="845">
@@ -15703,7 +15703,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>42.34784410052643</v>
+        <v>42.34784410052644</v>
       </c>
     </row>
     <row r="848">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>53.0127675811823</v>
+        <v>53.01276758118231</v>
       </c>
     </row>
     <row r="849">
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>48.57622416700575</v>
+        <v>48.57622416700577</v>
       </c>
     </row>
     <row r="854">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>51.39153913431898</v>
+        <v>51.39153913431899</v>
       </c>
     </row>
     <row r="857">
